--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_3.xlsx
@@ -482,183 +482,183 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.303141395600051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.4988412828114286</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4995191805889216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.5018448103859863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7712171673774719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.3687612116336823</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6017147898674011</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.4783864915370941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_22</t>
+          <t>model_6_3_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3159747985577135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3607374873541642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.429186821329636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4043864014648071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7570143342018127</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4703803658485413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.686273455619812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5719773769378662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_21</t>
+          <t>model_6_3_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3169217561628715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3546669916352498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4317826564056003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4034534640511704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7559663057327271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4748471677303314</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6831525564193726</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5728732943534851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_20</t>
+          <t>model_6_3_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3171422555387216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3570529563849864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4360443296713432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4069323374104857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7557222247123718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4730915427207947</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6780288219451904</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5695325136184692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_19</t>
+          <t>model_6_3_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3173245238764135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3560550958577438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4355999165622462</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4062654451725211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7555206418037415</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4738257825374603</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6785631775856018</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5701728463172913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_18</t>
+          <t>model_6_3_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3180445781540041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3543615729918129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.438363463906168</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4072065677096386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7547237277030945</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.475071907043457</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6752406358718872</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5692691802978516</v>
       </c>
     </row>
     <row r="8">
@@ -668,121 +668,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.318643678875937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3525794886581808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4380591566365143</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4063044414755439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7540607452392578</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4763831496238708</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6756064891815186</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5701355338096619</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_16</t>
+          <t>model_6_3_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3190953711377051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3531386373958869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4448346445346285</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4105232862844839</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7535607218742371</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4759716987609863</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.667460560798645</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5660840272903442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_15</t>
+          <t>model_6_3_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3191670294576114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3832991017680522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4524027780801865</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4272164325641168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7534814476966858</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4537791609764099</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.658361554145813</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5500532984733582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_14</t>
+          <t>model_6_3_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3194940962686101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3520374895338033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.442724380841599</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4088332120927317</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7531195282936096</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.476781964302063</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6699976325035095</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5677070617675781</v>
       </c>
     </row>
     <row r="12">
@@ -792,462 +792,462 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3198536368724223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3525496042924252</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4496448435450476</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4131184489468089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7527216672897339</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4764052033424377</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.661677360534668</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5635918974876404</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_23</t>
+          <t>model_6_3_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3200289011371344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3517003242606148</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4463018429756695</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4108041101333579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.75252765417099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4770301282405853</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6656965017318726</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5658143758773804</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_12</t>
+          <t>model_6_3_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3200347206804754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3523932313192837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4464253886762505</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4111581653860413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7525211572647095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4765202701091766</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6655480265617371</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5654743313789368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_10</t>
+          <t>model_6_3_21</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.320287891242039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3516711970285089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4479716184395525</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4117764771821546</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7522410154342651</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4770515263080597</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6636890172958374</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5648806095123291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_9</t>
+          <t>model_6_3_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3204000118116243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3518414532697464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4480947801150216</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4119180348423229</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7521169781684875</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4769262075424194</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6635409593582153</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5647446513175964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_8</t>
+          <t>model_6_3_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3204141950533059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.4916886253844577</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.5254222704883971</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.5142040027265902</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7521012425422668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.3740242719650269</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.5705721378326416</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.4665177464485168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_7</t>
+          <t>model_6_3_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3205897271361512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3517187819379062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4493301945159272</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4125959367908754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7519069314002991</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4770165085792542</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6620556116104126</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5640936493873596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_6</t>
+          <t>model_6_3_22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3207374337245791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3516308571867313</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.450480200221421</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4132377625290103</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.751743495464325</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4770811796188354</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6606730222702026</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5634772777557373</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_5</t>
+          <t>model_6_3_14</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3207686169936688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3519339938114173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4553848918737579</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4162503400128897</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.751708984375</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4768581390380859</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6547762155532837</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5605842471122742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_4</t>
+          <t>model_6_3_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3216455401452794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3526329130773129</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4580643158347577</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.418112668534668</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7507385015487671</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4763438999652863</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6515548229217529</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5587958097457886</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_3</t>
+          <t>model_6_3_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3216700479940987</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3536588227386407</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.459233549520738</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4192173674293385</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7507113814353943</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4755889475345612</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6501491069793701</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.5577349662780762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_2</t>
+          <t>model_6_3_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.323365097695361</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.3702337151015238</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.4816711522452284</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4391602177090889</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7488355040550232</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4633928835391998</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.6231729984283447</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.538583517074585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_1</t>
+          <t>model_6_3_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3253907268338032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.4307462015770821</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.5359567141980421</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4956896250273592</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7465936541557312</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.418866753578186</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.5579068660736084</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.4842974245548248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_11</t>
+          <t>model_6_3_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3275685635079297</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.4247068090509418</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.5370802951286908</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4939015578724805</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7441834807395935</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.4233106374740601</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.5565560460090637</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.4860145449638367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_24</t>
+          <t>model_6_3_4</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3276792161835731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9817703666890687</v>
+        <v>0.4183716800333475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8284324916932027</v>
+        <v>0.5331016172972414</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9227924799221925</v>
+        <v>0.4889881147519561</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7440609931945801</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03076599352061749</v>
+        <v>0.427972137928009</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2347075790166855</v>
+        <v>0.5613394975662231</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1267384141683578</v>
+        <v>0.4907329678535461</v>
       </c>
     </row>
   </sheetData>
